--- a/ResultadoEleicoesDistritos/LISBOA_SOBRAL DE MONTE AGRAÇO.xlsx
+++ b/ResultadoEleicoesDistritos/LISBOA_SOBRAL DE MONTE AGRAÇO.xlsx
@@ -597,64 +597,64 @@
         <v>2667</v>
       </c>
       <c r="H2" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I2" t="n">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="J2" t="n">
-        <v>1129</v>
+        <v>1104</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="M2" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S2" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="T2" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="U2" t="n">
         <v>14</v>
       </c>
       <c r="V2" t="n">
-        <v>1705</v>
+        <v>1739</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1663</v>
+        <v>1641</v>
       </c>
       <c r="Y2" t="n">
         <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
